--- a/Datasources/Season_Data/defensive_actions.xlsx
+++ b/Datasources/Season_Data/defensive_actions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossh\Projects\CITY_Soccer_Analysis\Datasources\Season_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5FBFF2-B544-48A4-B8C9-5A0744650024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3D84DC-131A-441E-A28C-C45BFBA5B929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -401,7 +401,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -708,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:W1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Datasources/Season_Data/defensive_actions.xlsx
+++ b/Datasources/Season_Data/defensive_actions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossh\Projects\CITY_Soccer_Analysis\Datasources\Season_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3D84DC-131A-441E-A28C-C45BFBA5B929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87FC3C9F-92B9-499B-B7D6-F11E38145967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="105">
   <si>
     <t>Blocks</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>Err</t>
-  </si>
-  <si>
-    <t>Matches</t>
   </si>
   <si>
     <t>Roman Bürki</t>
@@ -706,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X32"/>
+  <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C30"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -717,15 +714,15 @@
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -755,7 +752,7 @@
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>11</v>
@@ -787,28 +784,25 @@
       <c r="W1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G2">
         <v>33</v>
@@ -861,28 +855,25 @@
       <c r="W2">
         <v>2</v>
       </c>
-      <c r="X2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G3">
         <v>28.5</v>
@@ -935,28 +926,25 @@
       <c r="W3">
         <v>1</v>
       </c>
-      <c r="X3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G4">
         <v>25.6</v>
@@ -1009,28 +997,25 @@
       <c r="W4">
         <v>0</v>
       </c>
-      <c r="X4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G5">
         <v>24.6</v>
@@ -1083,28 +1068,25 @@
       <c r="W5">
         <v>2</v>
       </c>
-      <c r="X5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G6">
         <v>23.5</v>
@@ -1157,28 +1139,25 @@
       <c r="W6">
         <v>1</v>
       </c>
-      <c r="X6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G7">
         <v>21.9</v>
@@ -1231,28 +1210,25 @@
       <c r="W7">
         <v>1</v>
       </c>
-      <c r="X7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G8">
         <v>23.6</v>
@@ -1305,28 +1281,25 @@
       <c r="W8">
         <v>0</v>
       </c>
-      <c r="X8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G9">
         <v>23.3</v>
@@ -1379,28 +1352,25 @@
       <c r="W9">
         <v>0</v>
       </c>
-      <c r="X9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G10">
         <v>21.3</v>
@@ -1453,28 +1423,25 @@
       <c r="W10">
         <v>0</v>
       </c>
-      <c r="X10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G11">
         <v>14.6</v>
@@ -1527,28 +1494,25 @@
       <c r="W11">
         <v>0</v>
       </c>
-      <c r="X11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12">
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G12">
         <v>14.1</v>
@@ -1601,28 +1565,25 @@
       <c r="W12">
         <v>1</v>
       </c>
-      <c r="X12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13">
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G13">
         <v>12.8</v>
@@ -1675,28 +1636,25 @@
       <c r="W13">
         <v>0</v>
       </c>
-      <c r="X13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14">
         <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G14">
         <v>12.2</v>
@@ -1749,28 +1707,25 @@
       <c r="W14">
         <v>0</v>
       </c>
-      <c r="X14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15">
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G15">
         <v>12.4</v>
@@ -1823,28 +1778,25 @@
       <c r="W15">
         <v>0</v>
       </c>
-      <c r="X15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G16">
         <v>11.9</v>
@@ -1897,28 +1849,25 @@
       <c r="W16">
         <v>0</v>
       </c>
-      <c r="X16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G17">
         <v>10.5</v>
@@ -1971,28 +1920,25 @@
       <c r="W17">
         <v>0</v>
       </c>
-      <c r="X17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18">
         <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G18">
         <v>9.8000000000000007</v>
@@ -2045,28 +1991,25 @@
       <c r="W18">
         <v>0</v>
       </c>
-      <c r="X18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19">
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G19">
         <v>10.8</v>
@@ -2119,28 +2062,25 @@
       <c r="W19">
         <v>0</v>
       </c>
-      <c r="X19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20">
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G20">
         <v>10.1</v>
@@ -2193,28 +2133,25 @@
       <c r="W20">
         <v>0</v>
       </c>
-      <c r="X20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21">
         <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G21">
         <v>7.3</v>
@@ -2267,28 +2204,25 @@
       <c r="W21">
         <v>0</v>
       </c>
-      <c r="X21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22">
         <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G22">
         <v>6.8</v>
@@ -2341,28 +2275,25 @@
       <c r="W22">
         <v>0</v>
       </c>
-      <c r="X22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G23">
         <v>6.6</v>
@@ -2415,28 +2346,25 @@
       <c r="W23">
         <v>0</v>
       </c>
-      <c r="X23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24">
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G24">
         <v>1.6</v>
@@ -2489,28 +2417,25 @@
       <c r="W24">
         <v>0</v>
       </c>
-      <c r="X24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25">
         <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -2563,28 +2488,25 @@
       <c r="W25">
         <v>0</v>
       </c>
-      <c r="X25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26">
         <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2637,28 +2559,25 @@
       <c r="W26">
         <v>0</v>
       </c>
-      <c r="X26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27">
         <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G27">
         <v>1.6</v>
@@ -2711,28 +2630,25 @@
       <c r="W27">
         <v>0</v>
       </c>
-      <c r="X27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28">
         <v>17</v>
       </c>
       <c r="D28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G28">
         <v>0.5</v>
@@ -2785,28 +2701,25 @@
       <c r="W28">
         <v>0</v>
       </c>
-      <c r="X28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29">
         <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G29">
         <v>0.3</v>
@@ -2859,28 +2772,25 @@
       <c r="W29">
         <v>0</v>
       </c>
-      <c r="X29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30">
         <v>46</v>
       </c>
       <c r="D30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G30">
         <v>0.2</v>
@@ -2933,19 +2843,16 @@
       <c r="W30">
         <v>0</v>
       </c>
-      <c r="X30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G31">
         <v>34</v>
@@ -2999,15 +2906,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G32">
         <v>34</v>
